--- a/test_files/览境Ⅲ断桥电动提升窗_审单BOM.xlsx
+++ b/test_files/览境Ⅲ断桥电动提升窗_审单BOM.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1020" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="188">
   <si>
     <t>樘号</t>
   </si>
@@ -121,15 +121,6 @@
     <t>览境Ⅲ断桥电动提升窗</t>
   </si>
   <si>
-    <t>X00269+X00640-边框</t>
-  </si>
-  <si>
-    <t>X00269+X00640</t>
-  </si>
-  <si>
-    <t>1939.00</t>
-  </si>
-  <si>
     <t>X00638-竖框盖板2</t>
   </si>
   <si>
@@ -254,9 +245,6 @@
   </si>
   <si>
     <t>882.50</t>
-  </si>
-  <si>
-    <t>2316.00</t>
   </si>
   <si>
     <t>LA1</t>
@@ -1617,10 +1605,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P46"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S13" sqref="S13"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1736,10 +1724,10 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
@@ -1748,7 +1736,7 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -1763,7 +1751,7 @@
         <v>25</v>
       </c>
       <c r="L3" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M3" t="s">
         <v>27</v>
@@ -1786,13 +1774,13 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
         <v>21</v>
@@ -1816,7 +1804,7 @@
         <v>26</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -1836,16 +1824,16 @@
         <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="G5" t="s">
         <v>22</v>
@@ -1860,13 +1848,13 @@
         <v>24</v>
       </c>
       <c r="K5" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
         <v>26</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
@@ -1886,19 +1874,19 @@
         <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
         <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H6" t="s">
         <v>23</v>
@@ -1913,10 +1901,10 @@
         <v>25</v>
       </c>
       <c r="L6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -1936,19 +1924,19 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
         <v>21</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
         <v>23</v>
@@ -1963,10 +1951,10 @@
         <v>25</v>
       </c>
       <c r="L7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N7" t="s">
         <v>28</v>
@@ -1986,22 +1974,22 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
         <v>21</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
         <v>24</v>
@@ -2013,10 +2001,10 @@
         <v>25</v>
       </c>
       <c r="L8" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N8" t="s">
         <v>28</v>
@@ -2036,22 +2024,22 @@
         <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H9" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
         <v>24</v>
@@ -2060,13 +2048,13 @@
         <v>24</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="L9" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N9" t="s">
         <v>28</v>
@@ -2086,19 +2074,19 @@
         <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="F10" t="s">
         <v>21</v>
       </c>
       <c r="G10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
         <v>23</v>
@@ -2113,10 +2101,10 @@
         <v>25</v>
       </c>
       <c r="L10" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N10" t="s">
         <v>28</v>
@@ -2136,19 +2124,19 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
         <v>21</v>
       </c>
       <c r="G11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H11" t="s">
         <v>23</v>
@@ -2163,10 +2151,10 @@
         <v>25</v>
       </c>
       <c r="L11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N11" t="s">
         <v>28</v>
@@ -2186,22 +2174,22 @@
         <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F12" t="s">
         <v>21</v>
       </c>
       <c r="G12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
         <v>24</v>
@@ -2213,10 +2201,10 @@
         <v>25</v>
       </c>
       <c r="L12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N12" t="s">
         <v>28</v>
@@ -2236,22 +2224,22 @@
         <v>17</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F13" t="s">
         <v>21</v>
       </c>
       <c r="G13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
         <v>24</v>
@@ -2263,10 +2251,10 @@
         <v>25</v>
       </c>
       <c r="L13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M13" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N13" t="s">
         <v>28</v>
@@ -2286,19 +2274,19 @@
         <v>17</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D14" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="F14" t="s">
         <v>21</v>
       </c>
       <c r="G14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H14" t="s">
         <v>23</v>
@@ -2313,10 +2301,10 @@
         <v>25</v>
       </c>
       <c r="L14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M14" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N14" t="s">
         <v>28</v>
@@ -2333,22 +2321,22 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="E15" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F15" t="s">
         <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H15" t="s">
         <v>23</v>
@@ -2363,10 +2351,10 @@
         <v>25</v>
       </c>
       <c r="L15" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N15" t="s">
         <v>28</v>
@@ -2383,25 +2371,25 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C16" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="D16" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E16" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="F16" t="s">
         <v>21</v>
       </c>
       <c r="G16" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H16" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
         <v>24</v>
@@ -2413,10 +2401,10 @@
         <v>25</v>
       </c>
       <c r="L16" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N16" t="s">
         <v>28</v>
@@ -2433,25 +2421,25 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="E17" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
       <c r="F17" t="s">
         <v>21</v>
       </c>
       <c r="G17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H17" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I17" t="s">
         <v>24</v>
@@ -2463,10 +2451,10 @@
         <v>25</v>
       </c>
       <c r="L17" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M17" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N17" t="s">
         <v>28</v>
@@ -2483,25 +2471,25 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="C18" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>49</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
         <v>21</v>
       </c>
       <c r="G18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H18" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="I18" t="s">
         <v>24</v>
@@ -2513,10 +2501,10 @@
         <v>25</v>
       </c>
       <c r="L18" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M18" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N18" t="s">
         <v>28</v>
@@ -2533,22 +2521,22 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
         <v>21</v>
       </c>
       <c r="G19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H19" t="s">
         <v>23</v>
@@ -2563,10 +2551,10 @@
         <v>25</v>
       </c>
       <c r="L19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M19" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N19" t="s">
         <v>28</v>
@@ -2583,22 +2571,22 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C20" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D20" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s">
         <v>21</v>
       </c>
       <c r="G20" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H20" t="s">
         <v>23</v>
@@ -2613,10 +2601,10 @@
         <v>25</v>
       </c>
       <c r="L20" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M20" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="N20" t="s">
         <v>28</v>
@@ -2633,22 +2621,22 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="D21" t="s">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>66</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
         <v>21</v>
       </c>
       <c r="G21" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H21" t="s">
         <v>23</v>
@@ -2663,7 +2651,7 @@
         <v>25</v>
       </c>
       <c r="L21" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M21" t="s">
         <v>27</v>
@@ -2683,22 +2671,22 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D22" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H22" t="s">
         <v>23</v>
@@ -2713,10 +2701,10 @@
         <v>25</v>
       </c>
       <c r="L22" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M22" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="N22" t="s">
         <v>28</v>
@@ -2733,22 +2721,22 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C23" t="s">
-        <v>69</v>
+        <v>83</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="F23" t="s">
         <v>21</v>
       </c>
       <c r="G23" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H23" t="s">
         <v>23</v>
@@ -2763,16 +2751,16 @@
         <v>25</v>
       </c>
       <c r="L23" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M23" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="N23" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="O23" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="P23" t="s">
         <v>29</v>
@@ -2783,22 +2771,22 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="F24" t="s">
         <v>21</v>
       </c>
       <c r="G24" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H24" t="s">
         <v>23</v>
@@ -2813,16 +2801,16 @@
         <v>25</v>
       </c>
       <c r="L24" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="M24" t="s">
         <v>27</v>
       </c>
       <c r="N24" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="O24" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="P24" t="s">
         <v>29</v>
@@ -2833,22 +2821,22 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C25" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="F25" t="s">
         <v>21</v>
       </c>
       <c r="G25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H25" t="s">
         <v>23</v>
@@ -2863,7 +2851,7 @@
         <v>25</v>
       </c>
       <c r="L25" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M25" t="s">
         <v>27</v>
@@ -2883,22 +2871,22 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C26" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F26" t="s">
         <v>21</v>
       </c>
       <c r="G26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H26" t="s">
         <v>23</v>
@@ -2913,7 +2901,7 @@
         <v>25</v>
       </c>
       <c r="L26" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M26" t="s">
         <v>27</v>
@@ -2933,22 +2921,22 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C27" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="F27" t="s">
         <v>21</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
         <v>23</v>
@@ -2963,7 +2951,7 @@
         <v>25</v>
       </c>
       <c r="L27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M27" t="s">
         <v>27</v>
@@ -2975,956 +2963,6 @@
         <v>28</v>
       </c>
       <c r="P27" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16">
-      <c r="A28" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>72</v>
-      </c>
-      <c r="D28" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" t="s">
-        <v>75</v>
-      </c>
-      <c r="F28" t="s">
-        <v>21</v>
-      </c>
-      <c r="G28" t="s">
-        <v>35</v>
-      </c>
-      <c r="H28" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" t="s">
-        <v>24</v>
-      </c>
-      <c r="K28" t="s">
-        <v>25</v>
-      </c>
-      <c r="L28" t="s">
-        <v>35</v>
-      </c>
-      <c r="M28" t="s">
-        <v>39</v>
-      </c>
-      <c r="N28" t="s">
-        <v>28</v>
-      </c>
-      <c r="O28" t="s">
-        <v>28</v>
-      </c>
-      <c r="P28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16">
-      <c r="A29" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C29" t="s">
-        <v>72</v>
-      </c>
-      <c r="D29" t="s">
-        <v>73</v>
-      </c>
-      <c r="E29" t="s">
-        <v>75</v>
-      </c>
-      <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s">
-        <v>35</v>
-      </c>
-      <c r="H29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" t="s">
-        <v>24</v>
-      </c>
-      <c r="K29" t="s">
-        <v>25</v>
-      </c>
-      <c r="L29" t="s">
-        <v>35</v>
-      </c>
-      <c r="M29" t="s">
-        <v>39</v>
-      </c>
-      <c r="N29" t="s">
-        <v>28</v>
-      </c>
-      <c r="O29" t="s">
-        <v>28</v>
-      </c>
-      <c r="P29" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16">
-      <c r="A30" t="s">
-        <v>16</v>
-      </c>
-      <c r="B30" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" t="s">
-        <v>21</v>
-      </c>
-      <c r="G30" t="s">
-        <v>35</v>
-      </c>
-      <c r="H30" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" t="s">
-        <v>24</v>
-      </c>
-      <c r="K30" t="s">
-        <v>25</v>
-      </c>
-      <c r="L30" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30" t="s">
-        <v>39</v>
-      </c>
-      <c r="N30" t="s">
-        <v>28</v>
-      </c>
-      <c r="O30" t="s">
-        <v>28</v>
-      </c>
-      <c r="P30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="s">
-        <v>72</v>
-      </c>
-      <c r="D31" t="s">
-        <v>73</v>
-      </c>
-      <c r="E31" t="s">
-        <v>75</v>
-      </c>
-      <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s">
-        <v>35</v>
-      </c>
-      <c r="H31" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" t="s">
-        <v>24</v>
-      </c>
-      <c r="K31" t="s">
-        <v>25</v>
-      </c>
-      <c r="L31" t="s">
-        <v>35</v>
-      </c>
-      <c r="M31" t="s">
-        <v>39</v>
-      </c>
-      <c r="N31" t="s">
-        <v>28</v>
-      </c>
-      <c r="O31" t="s">
-        <v>28</v>
-      </c>
-      <c r="P31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16">
-      <c r="A32" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" t="s">
-        <v>77</v>
-      </c>
-      <c r="D32" t="s">
-        <v>78</v>
-      </c>
-      <c r="E32" t="s">
-        <v>79</v>
-      </c>
-      <c r="F32" t="s">
-        <v>21</v>
-      </c>
-      <c r="G32" t="s">
-        <v>35</v>
-      </c>
-      <c r="H32" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" t="s">
-        <v>24</v>
-      </c>
-      <c r="K32" t="s">
-        <v>25</v>
-      </c>
-      <c r="L32" t="s">
-        <v>35</v>
-      </c>
-      <c r="M32" t="s">
-        <v>27</v>
-      </c>
-      <c r="N32" t="s">
-        <v>28</v>
-      </c>
-      <c r="O32" t="s">
-        <v>28</v>
-      </c>
-      <c r="P32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:16">
-      <c r="A33" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C33" t="s">
-        <v>80</v>
-      </c>
-      <c r="D33" t="s">
-        <v>81</v>
-      </c>
-      <c r="E33" t="s">
-        <v>82</v>
-      </c>
-      <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s">
-        <v>35</v>
-      </c>
-      <c r="H33" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" t="s">
-        <v>25</v>
-      </c>
-      <c r="L33" t="s">
-        <v>35</v>
-      </c>
-      <c r="M33" t="s">
-        <v>39</v>
-      </c>
-      <c r="N33" t="s">
-        <v>28</v>
-      </c>
-      <c r="O33" t="s">
-        <v>28</v>
-      </c>
-      <c r="P33" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="34" spans="1:16">
-      <c r="A34" t="s">
-        <v>16</v>
-      </c>
-      <c r="B34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" t="s">
-        <v>83</v>
-      </c>
-      <c r="D34" t="s">
-        <v>78</v>
-      </c>
-      <c r="E34" t="s">
-        <v>79</v>
-      </c>
-      <c r="F34" t="s">
-        <v>21</v>
-      </c>
-      <c r="G34" t="s">
-        <v>35</v>
-      </c>
-      <c r="H34" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" t="s">
-        <v>24</v>
-      </c>
-      <c r="K34" t="s">
-        <v>25</v>
-      </c>
-      <c r="L34" t="s">
-        <v>35</v>
-      </c>
-      <c r="M34" t="s">
-        <v>27</v>
-      </c>
-      <c r="N34" t="s">
-        <v>28</v>
-      </c>
-      <c r="O34" t="s">
-        <v>28</v>
-      </c>
-      <c r="P34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="35" spans="1:16">
-      <c r="A35" t="s">
-        <v>16</v>
-      </c>
-      <c r="B35" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" t="s">
-        <v>85</v>
-      </c>
-      <c r="E35" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s">
-        <v>35</v>
-      </c>
-      <c r="H35" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" t="s">
-        <v>24</v>
-      </c>
-      <c r="K35" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" t="s">
-        <v>35</v>
-      </c>
-      <c r="M35" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" t="s">
-        <v>28</v>
-      </c>
-      <c r="O35" t="s">
-        <v>28</v>
-      </c>
-      <c r="P35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B36" t="s">
-        <v>76</v>
-      </c>
-      <c r="C36" t="s">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" t="s">
-        <v>86</v>
-      </c>
-      <c r="F36" t="s">
-        <v>21</v>
-      </c>
-      <c r="G36" t="s">
-        <v>35</v>
-      </c>
-      <c r="H36" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" t="s">
-        <v>24</v>
-      </c>
-      <c r="K36" t="s">
-        <v>25</v>
-      </c>
-      <c r="L36" t="s">
-        <v>35</v>
-      </c>
-      <c r="M36" t="s">
-        <v>27</v>
-      </c>
-      <c r="N36" t="s">
-        <v>28</v>
-      </c>
-      <c r="O36" t="s">
-        <v>28</v>
-      </c>
-      <c r="P36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" t="s">
-        <v>88</v>
-      </c>
-      <c r="E37" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s">
-        <v>22</v>
-      </c>
-      <c r="H37" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" t="s">
-        <v>25</v>
-      </c>
-      <c r="L37" t="s">
-        <v>26</v>
-      </c>
-      <c r="M37" t="s">
-        <v>39</v>
-      </c>
-      <c r="N37" t="s">
-        <v>89</v>
-      </c>
-      <c r="O37" t="s">
-        <v>89</v>
-      </c>
-      <c r="P37" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B38" t="s">
-        <v>63</v>
-      </c>
-      <c r="C38" t="s">
-        <v>87</v>
-      </c>
-      <c r="D38" t="s">
-        <v>88</v>
-      </c>
-      <c r="E38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G38" t="s">
-        <v>22</v>
-      </c>
-      <c r="H38" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" t="s">
-        <v>24</v>
-      </c>
-      <c r="K38" t="s">
-        <v>25</v>
-      </c>
-      <c r="L38" t="s">
-        <v>26</v>
-      </c>
-      <c r="M38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N38" t="s">
-        <v>89</v>
-      </c>
-      <c r="O38" t="s">
-        <v>89</v>
-      </c>
-      <c r="P38" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:16">
-      <c r="A39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" t="s">
-        <v>90</v>
-      </c>
-      <c r="D39" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" t="s">
-        <v>91</v>
-      </c>
-      <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s">
-        <v>22</v>
-      </c>
-      <c r="H39" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" t="s">
-        <v>24</v>
-      </c>
-      <c r="K39" t="s">
-        <v>25</v>
-      </c>
-      <c r="L39" t="s">
-        <v>26</v>
-      </c>
-      <c r="M39" t="s">
-        <v>27</v>
-      </c>
-      <c r="N39" t="s">
-        <v>89</v>
-      </c>
-      <c r="O39" t="s">
-        <v>89</v>
-      </c>
-      <c r="P39" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="40" spans="1:16">
-      <c r="A40" t="s">
-        <v>16</v>
-      </c>
-      <c r="B40" t="s">
-        <v>63</v>
-      </c>
-      <c r="C40" t="s">
-        <v>90</v>
-      </c>
-      <c r="D40" t="s">
-        <v>65</v>
-      </c>
-      <c r="E40" t="s">
-        <v>91</v>
-      </c>
-      <c r="F40" t="s">
-        <v>21</v>
-      </c>
-      <c r="G40" t="s">
-        <v>22</v>
-      </c>
-      <c r="H40" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" t="s">
-        <v>25</v>
-      </c>
-      <c r="L40" t="s">
-        <v>26</v>
-      </c>
-      <c r="M40" t="s">
-        <v>27</v>
-      </c>
-      <c r="N40" t="s">
-        <v>89</v>
-      </c>
-      <c r="O40" t="s">
-        <v>89</v>
-      </c>
-      <c r="P40" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="41" spans="1:16">
-      <c r="A41" t="s">
-        <v>16</v>
-      </c>
-      <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" t="s">
-        <v>92</v>
-      </c>
-      <c r="D41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" t="s">
-        <v>94</v>
-      </c>
-      <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s">
-        <v>35</v>
-      </c>
-      <c r="H41" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" t="s">
-        <v>24</v>
-      </c>
-      <c r="K41" t="s">
-        <v>25</v>
-      </c>
-      <c r="L41" t="s">
-        <v>35</v>
-      </c>
-      <c r="M41" t="s">
-        <v>27</v>
-      </c>
-      <c r="N41" t="s">
-        <v>28</v>
-      </c>
-      <c r="O41" t="s">
-        <v>28</v>
-      </c>
-      <c r="P41" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="42" spans="1:16">
-      <c r="A42" t="s">
-        <v>16</v>
-      </c>
-      <c r="B42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C42" t="s">
-        <v>92</v>
-      </c>
-      <c r="D42" t="s">
-        <v>93</v>
-      </c>
-      <c r="E42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F42" t="s">
-        <v>21</v>
-      </c>
-      <c r="G42" t="s">
-        <v>35</v>
-      </c>
-      <c r="H42" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" t="s">
-        <v>24</v>
-      </c>
-      <c r="K42" t="s">
-        <v>25</v>
-      </c>
-      <c r="L42" t="s">
-        <v>35</v>
-      </c>
-      <c r="M42" t="s">
-        <v>27</v>
-      </c>
-      <c r="N42" t="s">
-        <v>28</v>
-      </c>
-      <c r="O42" t="s">
-        <v>28</v>
-      </c>
-      <c r="P42" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="43" spans="1:16">
-      <c r="A43" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
-        <v>95</v>
-      </c>
-      <c r="D43" t="s">
-        <v>96</v>
-      </c>
-      <c r="E43" t="s">
-        <v>97</v>
-      </c>
-      <c r="F43" t="s">
-        <v>21</v>
-      </c>
-      <c r="G43" t="s">
-        <v>35</v>
-      </c>
-      <c r="H43" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" t="s">
-        <v>35</v>
-      </c>
-      <c r="M43" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" t="s">
-        <v>28</v>
-      </c>
-      <c r="O43" t="s">
-        <v>28</v>
-      </c>
-      <c r="P43" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" t="s">
-        <v>16</v>
-      </c>
-      <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>96</v>
-      </c>
-      <c r="E44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s">
-        <v>35</v>
-      </c>
-      <c r="H44" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" t="s">
-        <v>25</v>
-      </c>
-      <c r="L44" t="s">
-        <v>35</v>
-      </c>
-      <c r="M44" t="s">
-        <v>27</v>
-      </c>
-      <c r="N44" t="s">
-        <v>28</v>
-      </c>
-      <c r="O44" t="s">
-        <v>28</v>
-      </c>
-      <c r="P44" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="45" spans="1:16">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
-      </c>
-      <c r="D45" t="s">
-        <v>78</v>
-      </c>
-      <c r="E45" t="s">
-        <v>99</v>
-      </c>
-      <c r="F45" t="s">
-        <v>21</v>
-      </c>
-      <c r="G45" t="s">
-        <v>35</v>
-      </c>
-      <c r="H45" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" t="s">
-        <v>24</v>
-      </c>
-      <c r="K45" t="s">
-        <v>25</v>
-      </c>
-      <c r="L45" t="s">
-        <v>35</v>
-      </c>
-      <c r="M45" t="s">
-        <v>27</v>
-      </c>
-      <c r="N45" t="s">
-        <v>28</v>
-      </c>
-      <c r="O45" t="s">
-        <v>28</v>
-      </c>
-      <c r="P45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:16">
-      <c r="A46" t="s">
-        <v>16</v>
-      </c>
-      <c r="B46" t="s">
-        <v>63</v>
-      </c>
-      <c r="C46" t="s">
-        <v>98</v>
-      </c>
-      <c r="D46" t="s">
-        <v>78</v>
-      </c>
-      <c r="E46" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s">
-        <v>35</v>
-      </c>
-      <c r="H46" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" t="s">
-        <v>24</v>
-      </c>
-      <c r="K46" t="s">
-        <v>25</v>
-      </c>
-      <c r="L46" t="s">
-        <v>35</v>
-      </c>
-      <c r="M46" t="s">
-        <v>27</v>
-      </c>
-      <c r="N46" t="s">
-        <v>28</v>
-      </c>
-      <c r="O46" t="s">
-        <v>28</v>
-      </c>
-      <c r="P46" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3932,7 +2970,7 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
   <ignoredErrors>
-    <ignoredError sqref="A1:P46" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:P9 A10:B10 D10:P10 A11:P27" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
@@ -3965,19 +3003,19 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J1" t="s">
         <v>100</v>
-      </c>
-      <c r="G1" t="s">
-        <v>101</v>
-      </c>
-      <c r="H1" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" t="s">
-        <v>104</v>
       </c>
       <c r="K1" t="s">
         <v>7</v>
@@ -3986,19 +3024,19 @@
         <v>8</v>
       </c>
       <c r="M1" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" t="s">
+        <v>102</v>
+      </c>
+      <c r="O1" t="s">
+        <v>103</v>
+      </c>
+      <c r="P1" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q1" t="s">
         <v>105</v>
-      </c>
-      <c r="N1" t="s">
-        <v>106</v>
-      </c>
-      <c r="O1" t="s">
-        <v>107</v>
-      </c>
-      <c r="P1" t="s">
-        <v>108</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -4006,31 +3044,31 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C2" t="s">
         <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G2" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>23</v>
@@ -4039,19 +3077,19 @@
         <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O2" t="s">
         <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -4059,31 +3097,31 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K3" t="s">
         <v>23</v>
@@ -4092,19 +3130,19 @@
         <v>24</v>
       </c>
       <c r="M3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="O3" t="s">
         <v>24</v>
       </c>
       <c r="P3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -4112,31 +3150,31 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C4" t="s">
         <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="H4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="I4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="K4" t="s">
         <v>23</v>
@@ -4145,19 +3183,19 @@
         <v>24</v>
       </c>
       <c r="M4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="N4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="O4" t="s">
         <v>24</v>
       </c>
       <c r="P4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -4185,7 +3223,7 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -4200,7 +3238,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s">
         <v>15</v>
@@ -4211,22 +3249,22 @@
         <v>16</v>
       </c>
       <c r="B2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
         <v>121</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" t="s">
         <v>122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E2" t="s">
-        <v>124</v>
-      </c>
-      <c r="F2" t="s">
-        <v>125</v>
-      </c>
-      <c r="G2" t="s">
-        <v>126</v>
       </c>
       <c r="H2" t="s">
         <v>29</v>
@@ -4237,22 +3275,22 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" t="s">
         <v>121</v>
       </c>
-      <c r="C3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F3" t="s">
-        <v>125</v>
-      </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H3" t="s">
         <v>29</v>
@@ -4263,22 +3301,22 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F4" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H4" t="s">
         <v>29</v>
@@ -4289,22 +3327,22 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H5" t="s">
         <v>29</v>
@@ -4315,22 +3353,22 @@
         <v>16</v>
       </c>
       <c r="B6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" t="s">
+        <v>132</v>
+      </c>
+      <c r="E6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" t="s">
         <v>121</v>
       </c>
-      <c r="C6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E6" t="s">
-        <v>124</v>
-      </c>
-      <c r="F6" t="s">
-        <v>125</v>
-      </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H6" t="s">
         <v>29</v>
@@ -4341,22 +3379,22 @@
         <v>16</v>
       </c>
       <c r="B7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E7" t="s">
+        <v>120</v>
+      </c>
+      <c r="F7" t="s">
         <v>121</v>
       </c>
-      <c r="C7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F7" t="s">
-        <v>125</v>
-      </c>
       <c r="G7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H7" t="s">
         <v>29</v>
@@ -4367,22 +3405,22 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E8" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F8" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H8" t="s">
         <v>29</v>
@@ -4393,22 +3431,22 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D9" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F9" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H9" t="s">
         <v>29</v>
@@ -4419,22 +3457,22 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E10" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F10" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H10" t="s">
         <v>29</v>
@@ -4445,22 +3483,22 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C11" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F11" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G11" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H11" t="s">
         <v>29</v>
@@ -4471,22 +3509,22 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C12" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D12" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E12" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G12" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H12" t="s">
         <v>29</v>
@@ -4497,22 +3535,22 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C13" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G13" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H13" t="s">
         <v>29</v>
@@ -4523,22 +3561,22 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D14" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F14" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G14" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H14" t="s">
         <v>29</v>
@@ -4549,22 +3587,22 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C15" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D15" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F15" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G15" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
         <v>29</v>
@@ -4575,22 +3613,22 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F16" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H16" t="s">
         <v>29</v>
@@ -4601,22 +3639,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D17" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E17" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F17" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H17" t="s">
         <v>29</v>
@@ -4627,22 +3665,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
+      <c r="D18" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" t="s">
+        <v>120</v>
+      </c>
+      <c r="F18" t="s">
         <v>121</v>
       </c>
-      <c r="C18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D18" t="s">
-        <v>170</v>
-      </c>
-      <c r="E18" t="s">
-        <v>124</v>
-      </c>
-      <c r="F18" t="s">
-        <v>125</v>
-      </c>
       <c r="G18" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H18" t="s">
         <v>29</v>
@@ -4653,22 +3691,22 @@
         <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C19" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D19" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E19" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F19" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H19" t="s">
         <v>29</v>
@@ -4679,22 +3717,22 @@
         <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C20" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="D20" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E20" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F20" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H20" t="s">
         <v>29</v>
@@ -4705,22 +3743,22 @@
         <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C21" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D21" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E21" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F21" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H21" t="s">
         <v>29</v>
@@ -4731,22 +3769,22 @@
         <v>16</v>
       </c>
       <c r="B22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C22" t="s">
         <v>174</v>
       </c>
-      <c r="C22" t="s">
-        <v>178</v>
-      </c>
       <c r="D22" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F22" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G22" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H22" t="s">
         <v>29</v>
@@ -4757,22 +3795,22 @@
         <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C23" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D23" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E23" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G23" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H23" t="s">
         <v>29</v>
@@ -4783,22 +3821,22 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C24" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D24" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E24" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F24" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H24" t="s">
         <v>29</v>
@@ -4809,22 +3847,22 @@
         <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E25" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H25" t="s">
         <v>29</v>
@@ -4835,22 +3873,22 @@
         <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C26" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D26" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E26" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G26" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="H26" t="s">
         <v>29</v>
@@ -4861,22 +3899,22 @@
         <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C27" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D27" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E27" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F27" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="G27" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H27" t="s">
         <v>29</v>
